--- a/PythonResources/Data/Consumption/Sympheny/post_CE_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_CE_hea.xlsx
@@ -415,7 +415,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7.889659926228159</v>
+        <v>7.889659926228157</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -511,7 +511,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>29.00348227008138</v>
+        <v>29.00348227008137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -519,7 +519,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>41.9768257006889</v>
+        <v>41.97682570068889</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>54.29058931310597</v>
+        <v>54.29058931310595</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>96.63331127485317</v>
+        <v>96.63331127485316</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>23.56698226509917</v>
+        <v>23.56698226509916</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -895,7 +895,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5.839771908672031</v>
+        <v>5.83977190867203</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>65.04351225711005</v>
+        <v>65.04351225711004</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12.27616523579617</v>
+        <v>12.27616523579616</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>339.6127710980376</v>
+        <v>339.6127710980375</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>141.4007681978066</v>
+        <v>141.4007681978065</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>250.7662049234763</v>
+        <v>250.7662049234762</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>86.2710197875704</v>
+        <v>86.27101978757038</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>625.1115867979703</v>
+        <v>625.1115867979702</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>290.8335585095814</v>
+        <v>290.8335585095813</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>369.6084746766108</v>
+        <v>369.6084746766107</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>296.3252115533293</v>
+        <v>296.3252115533292</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>430.7244540233086</v>
+        <v>430.7244540233085</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>587.6244306362397</v>
+        <v>587.6244306362396</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>80.95268309466607</v>
+        <v>80.95268309466606</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>83.33642034827393</v>
+        <v>83.3364203482739</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>65.29184336408041</v>
+        <v>65.29184336408039</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>317.6340843962532</v>
+        <v>317.6340843962531</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>47.39721676296004</v>
+        <v>47.39721676296003</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>99.44167036424628</v>
+        <v>99.44167036424626</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>5.846276034233043</v>
+        <v>5.846276034233041</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>129.7362477880464</v>
+        <v>129.7362477880463</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>330.4628001999918</v>
+        <v>330.4628001999916</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>61.82330629850693</v>
+        <v>61.82330629850692</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>37.08752449341206</v>
+        <v>37.08752449341205</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>318.8617589772056</v>
+        <v>318.8617589772055</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>313.0532082193532</v>
+        <v>313.0532082193531</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>352.9451587888195</v>
+        <v>352.9451587888194</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>341.0058842803143</v>
+        <v>341.0058842803142</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>733.1924052398758</v>
+        <v>733.1924052398757</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>452.6077754091125</v>
+        <v>452.6077754091124</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>430.5797941586254</v>
+        <v>430.5797941586253</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>594.6373275203671</v>
+        <v>594.637327520367</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>575.6993114589019</v>
+        <v>575.6993114589018</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>729.2784122114497</v>
+        <v>729.2784122114496</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>525.3611954015983</v>
+        <v>525.3611954015981</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>607.9736716701708</v>
+        <v>607.9736716701707</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>603.6095801405686</v>
+        <v>603.6095801405685</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>473.1200811689549</v>
+        <v>473.1200811689548</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>306.6254276639132</v>
+        <v>306.6254276639131</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>538</v>
       </c>
       <c r="B538">
-        <v>688.2008427550788</v>
+        <v>688.2008427550787</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>721.7800431517799</v>
+        <v>721.7800431517796</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>728.2900301335643</v>
+        <v>728.2900301335642</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>706.6144961141712</v>
+        <v>706.6144961141711</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>943.5975993965081</v>
+        <v>943.597599396508</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>516.5154322416829</v>
+        <v>516.5154322416828</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>590.5076635145901</v>
+        <v>590.5076635145899</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>886.2857993600501</v>
+        <v>886.28579936005</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>592.9650641737654</v>
+        <v>592.9650641737653</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>671.0245353212147</v>
+        <v>671.0245353212146</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>367.0278083385745</v>
+        <v>367.0278083385743</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>612</v>
       </c>
       <c r="B612">
-        <v>392.4993449862287</v>
+        <v>392.4993449862286</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>383.6353821148124</v>
+        <v>383.6353821148123</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>621</v>
       </c>
       <c r="B621">
-        <v>303.4715143742553</v>
+        <v>303.4715143742552</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>687.2128123624399</v>
+        <v>687.2128123624398</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>275.7528262305614</v>
+        <v>275.7528262305613</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>236.3889046821616</v>
+        <v>236.3889046821615</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>783.2194556967443</v>
+        <v>783.2194556967441</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>650</v>
       </c>
       <c r="B650">
-        <v>805.6949564232673</v>
+        <v>805.6949564232672</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>874.135044790047</v>
+        <v>874.1350447900467</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>533.850906556644</v>
+        <v>533.8509065566438</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>249.5666651622354</v>
+        <v>249.5666651622353</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>208.746470692017</v>
+        <v>208.7464706920169</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>432.0385845606661</v>
+        <v>432.038584560666</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>300.9834584844359</v>
+        <v>300.9834584844358</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6015,7 +6015,7 @@
         <v>709</v>
       </c>
       <c r="B709">
-        <v>355.8334617961387</v>
+        <v>355.8334617961386</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>276.8089077183776</v>
+        <v>276.8089077183775</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>401.7898141402088</v>
+        <v>401.7898141402087</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>188.6939054705227</v>
+        <v>188.6939054705226</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>149.1970439682757</v>
+        <v>149.1970439682756</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>959.9579970587392</v>
+        <v>959.9579970587391</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>277.1523283614809</v>
+        <v>277.1523283614808</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>357.9774815936735</v>
+        <v>357.9774815936734</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>650.7888593147649</v>
+        <v>650.7888593147647</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="B796">
-        <v>716.4262800317221</v>
+        <v>716.4262800317219</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>418.8583007389494</v>
+        <v>418.8583007389493</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>392.7876682740637</v>
+        <v>392.7876682740636</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>432.473384753624</v>
+        <v>432.4733847536239</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>817.6532512421816</v>
+        <v>817.6532512421815</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -7143,7 +7143,7 @@
         <v>850</v>
       </c>
       <c r="B850">
-        <v>624.530866534863</v>
+        <v>624.5308665348629</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>551.5125103234275</v>
+        <v>551.5125103234274</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>861</v>
       </c>
       <c r="B861">
-        <v>677.8179219973847</v>
+        <v>677.8179219973846</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>864</v>
       </c>
       <c r="B864">
-        <v>747.0909475631438</v>
+        <v>747.0909475631437</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>663.7578096105027</v>
+        <v>663.7578096105026</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>368.485543684876</v>
+        <v>368.4855436848759</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>928</v>
       </c>
       <c r="B928">
-        <v>246.8365325944818</v>
+        <v>246.8365325944817</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>555.9417222378202</v>
+        <v>555.94172223782</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>278.0068355889058</v>
+        <v>278.0068355889057</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>222.6700998961943</v>
+        <v>222.6700998961942</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>968</v>
       </c>
       <c r="B968">
-        <v>47.97689838230649</v>
+        <v>47.97689838230648</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>212.2176333810258</v>
+        <v>212.2176333810257</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>171.3790047424756</v>
+        <v>171.3790047424755</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>3.215329549590844</v>
+        <v>3.215329549590843</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>444.891508032198</v>
+        <v>444.8915080321979</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>1029</v>
       </c>
       <c r="B1029">
-        <v>397.1657685993139</v>
+        <v>397.1657685993138</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>1031</v>
       </c>
       <c r="B1031">
-        <v>396.7528315058401</v>
+        <v>396.75283150584</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>1034</v>
       </c>
       <c r="B1034">
-        <v>582.8417750492214</v>
+        <v>582.8417750492213</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>348.4614649683396</v>
+        <v>348.4614649683395</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>61.19063040166559</v>
+        <v>61.19063040166558</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>36.04653323337658</v>
+        <v>36.04653323337657</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>356.8037320838348</v>
+        <v>356.8037320838347</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>410.3094771554057</v>
+        <v>410.3094771554056</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>1118</v>
       </c>
       <c r="B1118">
-        <v>482.2955785544682</v>
+        <v>482.2955785544681</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>1123</v>
       </c>
       <c r="B1123">
-        <v>807.83244073664</v>
+        <v>807.8324407366399</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>275.406562798383</v>
+        <v>275.4065627983829</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>567.9206785649602</v>
+        <v>567.9206785649601</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>591.1166651329283</v>
+        <v>591.1166651329282</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>1190</v>
       </c>
       <c r="B1190">
-        <v>55.07136279791405</v>
+        <v>55.07136279791404</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9879,7 +9879,7 @@
         <v>1192</v>
       </c>
       <c r="B1192">
-        <v>52.74176162656772</v>
+        <v>52.74176162656771</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>652.256764226108</v>
+        <v>652.2567642261079</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>99.78784294440267</v>
+        <v>99.78784294440266</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>37.3078904688023</v>
+        <v>37.30789046880229</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>227.4141287203171</v>
+        <v>227.414128720317</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10399,7 +10399,7 @@
         <v>1257</v>
       </c>
       <c r="B1257">
-        <v>29.31741703598503</v>
+        <v>29.31741703598502</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -10463,7 +10463,7 @@
         <v>1265</v>
       </c>
       <c r="B1265">
-        <v>19.90271799942676</v>
+        <v>19.90271799942675</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
@@ -10479,7 +10479,7 @@
         <v>1267</v>
       </c>
       <c r="B1267">
-        <v>209.3158813437425</v>
+        <v>209.3158813437424</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
@@ -10567,7 +10567,7 @@
         <v>1278</v>
       </c>
       <c r="B1278">
-        <v>293.5431467975249</v>
+        <v>293.5431467975248</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>43.86985653000374</v>
+        <v>43.86985653000373</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>66.39680880807423</v>
+        <v>66.39680880807421</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>1289</v>
       </c>
       <c r="B1289">
-        <v>22.04882739346722</v>
+        <v>22.04882739346721</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10703,7 +10703,7 @@
         <v>1295</v>
       </c>
       <c r="B1295">
-        <v>83.86447574573393</v>
+        <v>83.86447574573391</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10719,7 +10719,7 @@
         <v>1297</v>
       </c>
       <c r="B1297">
-        <v>144.6516293870537</v>
+        <v>144.6516293870536</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>5.335141093190144</v>
+        <v>5.335141093190143</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>2.733905271234316</v>
+        <v>2.733905271234315</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -11071,7 +11071,7 @@
         <v>1341</v>
       </c>
       <c r="B1341">
-        <v>0.6233559740479734</v>
+        <v>0.6233559740479733</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11079,7 +11079,7 @@
         <v>1342</v>
       </c>
       <c r="B1342">
-        <v>1.015041871059294</v>
+        <v>1.015041871059293</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>34.58821467570811</v>
+        <v>34.5882146757081</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>1353</v>
       </c>
       <c r="B1353">
-        <v>6.395356348006619</v>
+        <v>6.395356348006618</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>41.59087751916539</v>
+        <v>41.59087751916538</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>1366</v>
       </c>
       <c r="B1366">
-        <v>33.4292916297153</v>
+        <v>33.42929162971529</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>42.99103612921151</v>
+        <v>42.9910361292115</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11735,7 +11735,7 @@
         <v>1424</v>
       </c>
       <c r="B1424">
-        <v>98.10905583648042</v>
+        <v>98.10905583648041</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>169.1358976267694</v>
+        <v>169.1358976267693</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11855,7 +11855,7 @@
         <v>1439</v>
       </c>
       <c r="B1439">
-        <v>288.4780293434447</v>
+        <v>288.4780293434446</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -12103,7 +12103,7 @@
         <v>1470</v>
       </c>
       <c r="B1470">
-        <v>584.9631404554676</v>
+        <v>584.9631404554675</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>90.36315018542606</v>
+        <v>90.36315018542604</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>128.0331973288334</v>
+        <v>128.0331973288333</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12735,7 +12735,7 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>73.6561022372457</v>
+        <v>73.65610223724569</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -12807,7 +12807,7 @@
         <v>1558</v>
       </c>
       <c r="B1558">
-        <v>53.73916150031272</v>
+        <v>53.7391615003127</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>146.4231852015538</v>
+        <v>146.4231852015537</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12999,7 +12999,7 @@
         <v>1582</v>
       </c>
       <c r="B1582">
-        <v>2.467547657746952</v>
+        <v>2.467547657746951</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
@@ -13055,7 +13055,7 @@
         <v>1589</v>
       </c>
       <c r="B1589">
-        <v>53.45943984746241</v>
+        <v>53.45943984746238</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
@@ -13063,7 +13063,7 @@
         <v>1590</v>
       </c>
       <c r="B1590">
-        <v>62.74132202000973</v>
+        <v>62.74132202000972</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>6.391692080810236</v>
+        <v>6.391692080810235</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13095,7 +13095,7 @@
         <v>1594</v>
       </c>
       <c r="B1594">
-        <v>104.1602606222133</v>
+        <v>104.1602606222132</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>381.3413978667946</v>
+        <v>381.3413978667945</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13215,7 +13215,7 @@
         <v>1609</v>
       </c>
       <c r="B1609">
-        <v>487.7749401988547</v>
+        <v>487.7749401988546</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>495.3070827650198</v>
+        <v>495.3070827650197</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13263,7 +13263,7 @@
         <v>1615</v>
       </c>
       <c r="B1615">
-        <v>822.8183352275493</v>
+        <v>822.8183352275491</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>217.8884114436035</v>
+        <v>217.8884114436034</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>275.5341073144084</v>
+        <v>275.5341073144083</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>97.662494702741</v>
+        <v>97.66249470274099</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>308.8584531358895</v>
+        <v>308.8584531358894</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>313.968176002054</v>
+        <v>313.9681760020538</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13495,7 +13495,7 @@
         <v>1644</v>
       </c>
       <c r="B1644">
-        <v>85.90668266443778</v>
+        <v>85.90668266443775</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>56.26529904089573</v>
+        <v>56.26529904089572</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13551,7 +13551,7 @@
         <v>1651</v>
       </c>
       <c r="B1651">
-        <v>224.0674626085316</v>
+        <v>224.0674626085315</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13567,7 +13567,7 @@
         <v>1653</v>
       </c>
       <c r="B1653">
-        <v>235.2459833148797</v>
+        <v>235.2459833148796</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>426.5977969263882</v>
+        <v>426.5977969263881</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13631,7 +13631,7 @@
         <v>1661</v>
       </c>
       <c r="B1661">
-        <v>466.6736583647457</v>
+        <v>466.6736583647456</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
@@ -13671,7 +13671,7 @@
         <v>1666</v>
       </c>
       <c r="B1666">
-        <v>41.21545938006098</v>
+        <v>41.21545938006097</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>224.0525452926637</v>
+        <v>224.0525452926636</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>358.8942078026062</v>
+        <v>358.8942078026061</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>98.78572169622484</v>
+        <v>98.78572169622481</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13895,7 +13895,7 @@
         <v>1694</v>
       </c>
       <c r="B1694">
-        <v>85.29885333025416</v>
+        <v>85.29885333025413</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -14039,7 +14039,7 @@
         <v>1712</v>
       </c>
       <c r="B1712">
-        <v>84.3737159825119</v>
+        <v>84.37371598251188</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14055,7 +14055,7 @@
         <v>1714</v>
       </c>
       <c r="B1714">
-        <v>184.9239568575986</v>
+        <v>184.9239568575985</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>482.6733471233027</v>
+        <v>482.6733471233026</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>494.3642439265424</v>
+        <v>494.3642439265423</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>308.7192736996292</v>
+        <v>308.7192736996291</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14871,7 +14871,7 @@
         <v>1816</v>
       </c>
       <c r="B1816">
-        <v>50.39339511661591</v>
+        <v>50.3933951166159</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>285.5713507820015</v>
+        <v>285.5713507820014</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>118.5920163932217</v>
+        <v>118.5920163932216</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>45.76046366182885</v>
+        <v>45.76046366182884</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>211.9730949063668</v>
+        <v>211.9730949063667</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>516.1253546892247</v>
+        <v>516.1253546892245</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15207,7 +15207,7 @@
         <v>1858</v>
       </c>
       <c r="B1858">
-        <v>97.81565948896618</v>
+        <v>97.81565948896616</v>
       </c>
     </row>
     <row r="1859" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>177.9197934904234</v>
+        <v>177.9197934904233</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15359,7 +15359,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>239.2110293182406</v>
+        <v>239.2110293182405</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -15391,7 +15391,7 @@
         <v>1881</v>
       </c>
       <c r="B1881">
-        <v>113.8311008158512</v>
+        <v>113.8311008158511</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>82.44872282572064</v>
+        <v>82.44872282572062</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>114.0394186408421</v>
+        <v>114.039418640842</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>87.35107448634906</v>
+        <v>87.35107448634905</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>51.90929568581847</v>
+        <v>51.90929568581846</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>426.3292676565044</v>
+        <v>426.3292676565043</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -16087,7 +16087,7 @@
         <v>1968</v>
       </c>
       <c r="B1968">
-        <v>288.8338175843796</v>
+        <v>288.8338175843795</v>
       </c>
     </row>
     <row r="1969" spans="1:2">
@@ -16103,7 +16103,7 @@
         <v>1970</v>
       </c>
       <c r="B1970">
-        <v>332.3525222572801</v>
+        <v>332.35252225728</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>69.59291260445787</v>
+        <v>69.59291260445785</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>88.2776859814158</v>
+        <v>88.27768598141579</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16167,7 +16167,7 @@
         <v>1978</v>
       </c>
       <c r="B1978">
-        <v>92.15724316279923</v>
+        <v>92.15724316279922</v>
       </c>
     </row>
     <row r="1979" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>299.4104582986289</v>
+        <v>299.4104582986288</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16319,7 +16319,7 @@
         <v>1997</v>
       </c>
       <c r="B1997">
-        <v>321.3312341631738</v>
+        <v>321.3312341631737</v>
       </c>
     </row>
     <row r="1998" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>42.39672030062055</v>
+        <v>42.39672030062054</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16415,7 +16415,7 @@
         <v>2009</v>
       </c>
       <c r="B2009">
-        <v>68.10938700675412</v>
+        <v>68.1093870067541</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16599,7 +16599,7 @@
         <v>2032</v>
       </c>
       <c r="B2032">
-        <v>80.55930849302287</v>
+        <v>80.55930849302285</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16647,7 +16647,7 @@
         <v>2038</v>
       </c>
       <c r="B2038">
-        <v>172.742195371705</v>
+        <v>172.7421953717049</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
@@ -16759,7 +16759,7 @@
         <v>2052</v>
       </c>
       <c r="B2052">
-        <v>176.9324078540695</v>
+        <v>176.9324078540694</v>
       </c>
     </row>
     <row r="2053" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>429.0356907772303</v>
+        <v>429.0356907772302</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>232.4876866203107</v>
+        <v>232.4876866203106</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>8.924071741445696</v>
+        <v>8.924071741445694</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17543,7 +17543,7 @@
         <v>2150</v>
       </c>
       <c r="B2150">
-        <v>11.45453794126974</v>
+        <v>11.45453794126973</v>
       </c>
     </row>
     <row r="2151" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>9.911302050149146</v>
+        <v>9.911302050149144</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>96.39490384632293</v>
+        <v>96.39490384632292</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>25.26241873872776</v>
+        <v>25.26241873872775</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -18399,7 +18399,7 @@
         <v>2257</v>
       </c>
       <c r="B2257">
-        <v>5.133202545497815</v>
+        <v>5.133202545497814</v>
       </c>
     </row>
     <row r="2258" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>0.209151905166901</v>
+        <v>0.2091519051669009</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18463,7 +18463,7 @@
         <v>2265</v>
       </c>
       <c r="B2265">
-        <v>19.69257375572295</v>
+        <v>19.69257375572294</v>
       </c>
     </row>
     <row r="2266" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>4.340704460717052</v>
+        <v>4.340704460717051</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -18551,7 +18551,7 @@
         <v>2276</v>
       </c>
       <c r="B2276">
-        <v>0.2636853917568495</v>
+        <v>0.2636853917568494</v>
       </c>
     </row>
     <row r="2277" spans="1:2">
@@ -18575,7 +18575,7 @@
         <v>2279</v>
       </c>
       <c r="B2279">
-        <v>9.993124553433006</v>
+        <v>9.993124553433004</v>
       </c>
     </row>
     <row r="2280" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>83.89295052785026</v>
+        <v>83.89295052785025</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18631,7 +18631,7 @@
         <v>2286</v>
       </c>
       <c r="B2286">
-        <v>68.69357430024894</v>
+        <v>68.69357430024893</v>
       </c>
     </row>
     <row r="2287" spans="1:2">
@@ -19239,7 +19239,7 @@
         <v>2362</v>
       </c>
       <c r="B2362">
-        <v>83.65845852839654</v>
+        <v>83.65845852839652</v>
       </c>
     </row>
     <row r="2363" spans="1:2">
@@ -19255,7 +19255,7 @@
         <v>2364</v>
       </c>
       <c r="B2364">
-        <v>71.32030847485247</v>
+        <v>71.32030847485245</v>
       </c>
     </row>
     <row r="2365" spans="1:2">
@@ -19359,7 +19359,7 @@
         <v>2377</v>
       </c>
       <c r="B2377">
-        <v>300.4209672399332</v>
+        <v>300.4209672399331</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>49.42113487656728</v>
+        <v>49.42113487656727</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>5.607309396853941</v>
+        <v>5.60730939685394</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>243.6413842096842</v>
+        <v>243.6413842096841</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>22.35015043336415</v>
+        <v>22.35015043336414</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>19.18090454617657</v>
+        <v>19.18090454617656</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -19959,7 +19959,7 @@
         <v>2452</v>
       </c>
       <c r="B2452">
-        <v>36.53743015384472</v>
+        <v>36.53743015384471</v>
       </c>
     </row>
     <row r="2453" spans="1:2">
@@ -20079,7 +20079,7 @@
         <v>2467</v>
       </c>
       <c r="B2467">
-        <v>0.0766188804569093</v>
+        <v>0.07661888045690921</v>
       </c>
     </row>
     <row r="2468" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>9.660028803021682</v>
+        <v>9.660028803021678</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>24.58013177646183</v>
+        <v>24.58013177646182</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>116.9459242903725</v>
+        <v>116.9459242903724</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>6.258070443727137</v>
+        <v>6.258070443727136</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20583,7 +20583,7 @@
         <v>2530</v>
       </c>
       <c r="B2530">
-        <v>31.42523171661672</v>
+        <v>31.42523171661671</v>
       </c>
     </row>
     <row r="2531" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>8.451582612915876</v>
+        <v>8.451582612915875</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -20679,7 +20679,7 @@
         <v>2542</v>
       </c>
       <c r="B2542">
-        <v>1.031462201748931</v>
+        <v>1.03146220174893</v>
       </c>
     </row>
     <row r="2543" spans="1:2">
@@ -20863,7 +20863,7 @@
         <v>2565</v>
       </c>
       <c r="B2565">
-        <v>63.21164242285345</v>
+        <v>63.21164242285344</v>
       </c>
     </row>
     <row r="2566" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>52.80359961572526</v>
+        <v>52.80359961572525</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>80.6777678068498</v>
+        <v>80.67776780684979</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21023,7 +21023,7 @@
         <v>2585</v>
       </c>
       <c r="B2585">
-        <v>6.902930769000822</v>
+        <v>6.902930769000821</v>
       </c>
     </row>
     <row r="2586" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>43.87767566531523</v>
+        <v>43.87767566531522</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21143,7 +21143,7 @@
         <v>2600</v>
       </c>
       <c r="B2600">
-        <v>28.00668319196564</v>
+        <v>28.00668319196563</v>
       </c>
     </row>
     <row r="2601" spans="1:2">
@@ -21247,7 +21247,7 @@
         <v>2613</v>
       </c>
       <c r="B2613">
-        <v>3.878867292158416</v>
+        <v>3.878867292158415</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -21271,7 +21271,7 @@
         <v>2616</v>
       </c>
       <c r="B2616">
-        <v>42.56839252293721</v>
+        <v>42.5683925229372</v>
       </c>
     </row>
     <row r="2617" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>45.11749950617531</v>
+        <v>45.1174995061753</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>40.95128514581164</v>
+        <v>40.95128514581163</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21583,7 +21583,7 @@
         <v>2655</v>
       </c>
       <c r="B2655">
-        <v>6.843048442884265</v>
+        <v>6.843048442884264</v>
       </c>
     </row>
     <row r="2656" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>71.8500871300198</v>
+        <v>71.85008713001979</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>63.36495081388759</v>
+        <v>63.36495081388757</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -21959,7 +21959,7 @@
         <v>2702</v>
       </c>
       <c r="B2702">
-        <v>62.78785290881799</v>
+        <v>62.78785290881798</v>
       </c>
     </row>
     <row r="2703" spans="1:2">
@@ -21983,7 +21983,7 @@
         <v>2705</v>
       </c>
       <c r="B2705">
-        <v>25.56736794658605</v>
+        <v>25.56736794658604</v>
       </c>
     </row>
     <row r="2706" spans="1:2">
@@ -22031,7 +22031,7 @@
         <v>2711</v>
       </c>
       <c r="B2711">
-        <v>167.3909233554759</v>
+        <v>167.3909233554758</v>
       </c>
     </row>
     <row r="2712" spans="1:2">
@@ -22127,7 +22127,7 @@
         <v>2723</v>
       </c>
       <c r="B2723">
-        <v>53.45866320920994</v>
+        <v>53.45866320920993</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -22207,7 +22207,7 @@
         <v>2733</v>
       </c>
       <c r="B2733">
-        <v>6.21846979697797</v>
+        <v>6.218469796977968</v>
       </c>
     </row>
     <row r="2734" spans="1:2">
@@ -22431,7 +22431,7 @@
         <v>2761</v>
       </c>
       <c r="B2761">
-        <v>31.45715506564499</v>
+        <v>31.45715506564498</v>
       </c>
     </row>
     <row r="2762" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>83.50312296498799</v>
+        <v>83.50312296498798</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>1.28637084857547</v>
+        <v>1.286370848575469</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22631,7 +22631,7 @@
         <v>2786</v>
       </c>
       <c r="B2786">
-        <v>49.24575237490117</v>
+        <v>49.24575237490116</v>
       </c>
     </row>
     <row r="2787" spans="1:2">
@@ -22807,7 +22807,7 @@
         <v>2808</v>
       </c>
       <c r="B2808">
-        <v>44.62868192472646</v>
+        <v>44.62868192472645</v>
       </c>
     </row>
     <row r="2809" spans="1:2">
@@ -22831,7 +22831,7 @@
         <v>2811</v>
       </c>
       <c r="B2811">
-        <v>55.23307646633699</v>
+        <v>55.23307646633698</v>
       </c>
     </row>
     <row r="2812" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>61.16832183420269</v>
+        <v>61.16832183420267</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>2.335395185780663</v>
+        <v>2.335395185780662</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>2.579974690385102</v>
+        <v>2.579974690385101</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>70.54293168338248</v>
+        <v>70.54293168338246</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23055,7 +23055,7 @@
         <v>2839</v>
       </c>
       <c r="B2839">
-        <v>4.954617949663292</v>
+        <v>4.954617949663291</v>
       </c>
     </row>
     <row r="2840" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>7.39034717781382</v>
+        <v>7.390347177813818</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>62.88747654699014</v>
+        <v>62.88747654699013</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>9.955154269664042</v>
+        <v>9.955154269664041</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -23799,7 +23799,7 @@
         <v>2932</v>
       </c>
       <c r="B2932">
-        <v>2.644751302847303</v>
+        <v>2.644751302847302</v>
       </c>
     </row>
     <row r="2933" spans="1:2">
@@ -23983,7 +23983,7 @@
         <v>2955</v>
       </c>
       <c r="B2955">
-        <v>109.3781853158515</v>
+        <v>109.3781853158514</v>
       </c>
     </row>
     <row r="2956" spans="1:2">
@@ -24143,7 +24143,7 @@
         <v>2975</v>
       </c>
       <c r="B2975">
-        <v>15.73241676342896</v>
+        <v>15.73241676342895</v>
       </c>
     </row>
     <row r="2976" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>3.834216160992128</v>
+        <v>3.834216160992127</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24351,7 +24351,7 @@
         <v>3001</v>
       </c>
       <c r="B3001">
-        <v>7.126619583827403</v>
+        <v>7.126619583827402</v>
       </c>
     </row>
     <row r="3002" spans="1:2">
@@ -24391,7 +24391,7 @@
         <v>3006</v>
       </c>
       <c r="B3006">
-        <v>49.3172030941268</v>
+        <v>49.31720309412679</v>
       </c>
     </row>
     <row r="3007" spans="1:2">
@@ -24751,7 +24751,7 @@
         <v>3051</v>
       </c>
       <c r="B3051">
-        <v>0.3230928255623592</v>
+        <v>0.3230928255623591</v>
       </c>
     </row>
     <row r="3052" spans="1:2">
@@ -24943,7 +24943,7 @@
         <v>3075</v>
       </c>
       <c r="B3075">
-        <v>3.291518348298518</v>
+        <v>3.291518348298517</v>
       </c>
     </row>
     <row r="3076" spans="1:2">
@@ -25495,7 +25495,7 @@
         <v>3144</v>
       </c>
       <c r="B3144">
-        <v>0.1296657642032483</v>
+        <v>0.1296657642032482</v>
       </c>
     </row>
     <row r="3145" spans="1:2">
@@ -25887,7 +25887,7 @@
         <v>3193</v>
       </c>
       <c r="B3193">
-        <v>0.7216166853548298</v>
+        <v>0.7216166853548296</v>
       </c>
     </row>
     <row r="3194" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>14.49230131688541</v>
+        <v>14.4923013168854</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26671,7 +26671,7 @@
         <v>3291</v>
       </c>
       <c r="B3291">
-        <v>0.1348000757295564</v>
+        <v>0.1348000757295563</v>
       </c>
     </row>
     <row r="3292" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>0.06599783948030299</v>
+        <v>0.0659978394803029</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>0.8574197674071008</v>
+        <v>0.8574197674071007</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>0.8274957490045842</v>
+        <v>0.8274957490045841</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>88.68602185958264</v>
+        <v>88.68602185958262</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -27007,7 +27007,7 @@
         <v>3333</v>
       </c>
       <c r="B3333">
-        <v>0.680777060274748</v>
+        <v>0.6807770602747479</v>
       </c>
     </row>
     <row r="3334" spans="1:2">
@@ -27047,7 +27047,7 @@
         <v>3338</v>
       </c>
       <c r="B3338">
-        <v>79.86695747128931</v>
+        <v>79.8669574712893</v>
       </c>
     </row>
     <row r="3339" spans="1:2">
@@ -27079,7 +27079,7 @@
         <v>3342</v>
       </c>
       <c r="B3342">
-        <v>77.5817946615352</v>
+        <v>77.58179466153518</v>
       </c>
     </row>
     <row r="3343" spans="1:2">
@@ -27231,7 +27231,7 @@
         <v>3361</v>
       </c>
       <c r="B3361">
-        <v>78.18742596292887</v>
+        <v>78.18742596292886</v>
       </c>
     </row>
     <row r="3362" spans="1:2">
@@ -27319,7 +27319,7 @@
         <v>3372</v>
       </c>
       <c r="B3372">
-        <v>18.75103181520582</v>
+        <v>18.75103181520581</v>
       </c>
     </row>
     <row r="3373" spans="1:2">
@@ -27423,7 +27423,7 @@
         <v>3385</v>
       </c>
       <c r="B3385">
-        <v>90.39708781170305</v>
+        <v>90.39708781170303</v>
       </c>
     </row>
     <row r="3386" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>6.781616943257345</v>
+        <v>6.781616943257344</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -29567,7 +29567,7 @@
         <v>3653</v>
       </c>
       <c r="B3653">
-        <v>0.093847208000136</v>
+        <v>0.09384720800013591</v>
       </c>
     </row>
     <row r="3654" spans="1:2">
@@ -29927,7 +29927,7 @@
         <v>3698</v>
       </c>
       <c r="B3698">
-        <v>5.892925030669885</v>
+        <v>5.892925030669884</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>0.1969721658711741</v>
+        <v>0.196972165871174</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>1.02783524249577</v>
+        <v>1.027835242495769</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31087,7 +31087,7 @@
         <v>3843</v>
       </c>
       <c r="B3843">
-        <v>4.937908211322976</v>
+        <v>4.937908211322975</v>
       </c>
     </row>
     <row r="3844" spans="1:2">
@@ -31095,7 +31095,7 @@
         <v>3844</v>
       </c>
       <c r="B3844">
-        <v>8.986847557926957</v>
+        <v>8.986847557926955</v>
       </c>
     </row>
     <row r="3845" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>0.2513863725483875</v>
+        <v>0.2513863725483874</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>7.492759679989873</v>
+        <v>7.492759679989872</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42431,7 +42431,7 @@
         <v>5261</v>
       </c>
       <c r="B5261">
-        <v>2.207045896683081</v>
+        <v>2.20704589668308</v>
       </c>
     </row>
     <row r="5262" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>0.7827048229528548</v>
+        <v>0.7827048229528547</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -45295,7 +45295,7 @@
         <v>5619</v>
       </c>
       <c r="B5619">
-        <v>0.4014416750533829</v>
+        <v>0.4014416750533828</v>
       </c>
     </row>
     <row r="5620" spans="1:2">
@@ -45679,7 +45679,7 @@
         <v>5667</v>
       </c>
       <c r="B5667">
-        <v>0.6203200218513767</v>
+        <v>0.6203200218513766</v>
       </c>
     </row>
     <row r="5668" spans="1:2">
@@ -46631,7 +46631,7 @@
         <v>5786</v>
       </c>
       <c r="B5786">
-        <v>0.3376178365378697</v>
+        <v>0.3376178365378696</v>
       </c>
     </row>
     <row r="5787" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>21.88766176788657</v>
+        <v>21.88766176788656</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47759,7 +47759,7 @@
         <v>5927</v>
       </c>
       <c r="B5927">
-        <v>0.5305380022285121</v>
+        <v>0.530538002228512</v>
       </c>
     </row>
     <row r="5928" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>19.76920948776458</v>
+        <v>19.76920948776457</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -48007,7 +48007,7 @@
         <v>5958</v>
       </c>
       <c r="B5958">
-        <v>13.06770058221493</v>
+        <v>13.06770058221492</v>
       </c>
     </row>
     <row r="5959" spans="1:2">
@@ -48167,7 +48167,7 @@
         <v>5978</v>
       </c>
       <c r="B5978">
-        <v>0.2797654669706009</v>
+        <v>0.2797654669706008</v>
       </c>
     </row>
     <row r="5979" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>0.8221463233358988</v>
+        <v>0.8221463233358985</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>2.611090335630815</v>
+        <v>2.611090335630814</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -50855,7 +50855,7 @@
         <v>6314</v>
       </c>
       <c r="B6314">
-        <v>0.314767439338691</v>
+        <v>0.3147674393386909</v>
       </c>
     </row>
     <row r="6315" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>0.1019224873994107</v>
+        <v>0.1019224873994106</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>9.449987720323483</v>
+        <v>9.449987720323481</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51423,7 +51423,7 @@
         <v>6385</v>
       </c>
       <c r="B6385">
-        <v>1.706549082658342</v>
+        <v>1.706549082658341</v>
       </c>
     </row>
     <row r="6386" spans="1:2">
@@ -51583,7 +51583,7 @@
         <v>6405</v>
       </c>
       <c r="B6405">
-        <v>0.3260833517479636</v>
+        <v>0.3260833517479635</v>
       </c>
     </row>
     <row r="6406" spans="1:2">
@@ -51799,7 +51799,7 @@
         <v>6432</v>
       </c>
       <c r="B6432">
-        <v>4.268777501053591</v>
+        <v>4.26877750105359</v>
       </c>
     </row>
     <row r="6433" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>0.8350021775178172</v>
+        <v>0.8350021775178171</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -52055,7 +52055,7 @@
         <v>6464</v>
       </c>
       <c r="B6464">
-        <v>0.8993192545913975</v>
+        <v>0.8993192545913973</v>
       </c>
     </row>
     <row r="6465" spans="1:2">
@@ -52215,7 +52215,7 @@
         <v>6484</v>
       </c>
       <c r="B6484">
-        <v>4.788771979595223</v>
+        <v>4.788771979595222</v>
       </c>
     </row>
     <row r="6485" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>5.50613661447853</v>
+        <v>5.506136614478529</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52431,7 +52431,7 @@
         <v>6511</v>
       </c>
       <c r="B6511">
-        <v>0.233054192938043</v>
+        <v>0.2330541929380429</v>
       </c>
     </row>
     <row r="6512" spans="1:2">
@@ -52615,7 +52615,7 @@
         <v>6534</v>
       </c>
       <c r="B6534">
-        <v>0.8685914009440403</v>
+        <v>0.8685914009440402</v>
       </c>
     </row>
     <row r="6535" spans="1:2">
@@ -53191,7 +53191,7 @@
         <v>6606</v>
       </c>
       <c r="B6606">
-        <v>6.300889587830754</v>
+        <v>6.300889587830753</v>
       </c>
     </row>
     <row r="6607" spans="1:2">
@@ -53543,7 +53543,7 @@
         <v>6650</v>
       </c>
       <c r="B6650">
-        <v>1.225122518347713</v>
+        <v>1.225122518347712</v>
       </c>
     </row>
     <row r="6651" spans="1:2">
@@ -53551,7 +53551,7 @@
         <v>6651</v>
       </c>
       <c r="B6651">
-        <v>5.135605434943799</v>
+        <v>5.135605434943798</v>
       </c>
     </row>
     <row r="6652" spans="1:2">
@@ -53975,7 +53975,7 @@
         <v>6704</v>
       </c>
       <c r="B6704">
-        <v>5.209686173670381</v>
+        <v>5.20968617367038</v>
       </c>
     </row>
     <row r="6705" spans="1:2">
@@ -54263,7 +54263,7 @@
         <v>6740</v>
       </c>
       <c r="B6740">
-        <v>26.02368248449216</v>
+        <v>26.02368248449215</v>
       </c>
     </row>
     <row r="6741" spans="1:2">
@@ -54343,7 +54343,7 @@
         <v>6750</v>
       </c>
       <c r="B6750">
-        <v>347.808532001306</v>
+        <v>347.8085320013059</v>
       </c>
     </row>
     <row r="6751" spans="1:2">
@@ -54455,7 +54455,7 @@
         <v>6764</v>
       </c>
       <c r="B6764">
-        <v>7.298570809772865</v>
+        <v>7.298570809772864</v>
       </c>
     </row>
     <row r="6765" spans="1:2">
@@ -54463,7 +54463,7 @@
         <v>6765</v>
       </c>
       <c r="B6765">
-        <v>11.62541887178201</v>
+        <v>11.625418871782</v>
       </c>
     </row>
     <row r="6766" spans="1:2">
@@ -54487,7 +54487,7 @@
         <v>6768</v>
       </c>
       <c r="B6768">
-        <v>61.62609879659171</v>
+        <v>61.6260987965917</v>
       </c>
     </row>
     <row r="6769" spans="1:2">
@@ -54567,7 +54567,7 @@
         <v>6778</v>
       </c>
       <c r="B6778">
-        <v>16.56780550164677</v>
+        <v>16.56780550164676</v>
       </c>
     </row>
     <row r="6779" spans="1:2">
@@ -54687,7 +54687,7 @@
         <v>6793</v>
       </c>
       <c r="B6793">
-        <v>7.148747326459451</v>
+        <v>7.14874732645945</v>
       </c>
     </row>
     <row r="6794" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>0.8812701816043997</v>
+        <v>0.8812701816043996</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54871,7 +54871,7 @@
         <v>6816</v>
       </c>
       <c r="B6816">
-        <v>0.9755689534609051</v>
+        <v>0.9755689534609049</v>
       </c>
     </row>
     <row r="6817" spans="1:2">
@@ -54911,7 +54911,7 @@
         <v>6821</v>
       </c>
       <c r="B6821">
-        <v>22.37797254627739</v>
+        <v>22.37797254627738</v>
       </c>
     </row>
     <row r="6822" spans="1:2">
@@ -55095,7 +55095,7 @@
         <v>6844</v>
       </c>
       <c r="B6844">
-        <v>5.622339281307754</v>
+        <v>5.622339281307753</v>
       </c>
     </row>
     <row r="6845" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>9.263363013614322</v>
+        <v>9.26336301361432</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55295,7 +55295,7 @@
         <v>6869</v>
       </c>
       <c r="B6869">
-        <v>6.258397217935245</v>
+        <v>6.258397217935244</v>
       </c>
     </row>
     <row r="6870" spans="1:2">
@@ -55455,7 +55455,7 @@
         <v>6889</v>
       </c>
       <c r="B6889">
-        <v>0.4819726142698634</v>
+        <v>0.4819726142698633</v>
       </c>
     </row>
     <row r="6890" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>6.593459475015988</v>
+        <v>6.593459475015987</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55639,7 +55639,7 @@
         <v>6912</v>
       </c>
       <c r="B6912">
-        <v>9.136685987863343</v>
+        <v>9.136685987863341</v>
       </c>
     </row>
     <row r="6913" spans="1:2">
@@ -55663,7 +55663,7 @@
         <v>6915</v>
       </c>
       <c r="B6915">
-        <v>42.20050044810563</v>
+        <v>42.20050044810561</v>
       </c>
     </row>
     <row r="6916" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>21.39800307255678</v>
+        <v>21.39800307255677</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>7.580123922157988</v>
+        <v>7.580123922157987</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -56015,7 +56015,7 @@
         <v>6959</v>
       </c>
       <c r="B6959">
-        <v>36.59097423260815</v>
+        <v>36.59097423260814</v>
       </c>
     </row>
     <row r="6960" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>65.49818266648927</v>
+        <v>65.49818266648926</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>2.168203609345684</v>
+        <v>2.168203609345683</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56423,7 +56423,7 @@
         <v>7010</v>
       </c>
       <c r="B7010">
-        <v>59.3208606206893</v>
+        <v>59.32086062068929</v>
       </c>
     </row>
     <row r="7011" spans="1:2">
@@ -56431,7 +56431,7 @@
         <v>7011</v>
       </c>
       <c r="B7011">
-        <v>79.61137021847274</v>
+        <v>79.61137021847273</v>
       </c>
     </row>
     <row r="7012" spans="1:2">
@@ -56479,7 +56479,7 @@
         <v>7017</v>
       </c>
       <c r="B7017">
-        <v>4.051197927870529</v>
+        <v>4.051197927870528</v>
       </c>
     </row>
     <row r="7018" spans="1:2">
@@ -56599,7 +56599,7 @@
         <v>7032</v>
       </c>
       <c r="B7032">
-        <v>9.329452877400767</v>
+        <v>9.329452877400765</v>
       </c>
     </row>
     <row r="7033" spans="1:2">
@@ -56647,7 +56647,7 @@
         <v>7038</v>
       </c>
       <c r="B7038">
-        <v>72.60881874201016</v>
+        <v>72.60881874201014</v>
       </c>
     </row>
     <row r="7039" spans="1:2">
@@ -56855,7 +56855,7 @@
         <v>7064</v>
       </c>
       <c r="B7064">
-        <v>0.6613013174715472</v>
+        <v>0.661301317471547</v>
       </c>
     </row>
     <row r="7065" spans="1:2">
@@ -56999,7 +56999,7 @@
         <v>7082</v>
       </c>
       <c r="B7082">
-        <v>0.6411477013559225</v>
+        <v>0.6411477013559224</v>
       </c>
     </row>
     <row r="7083" spans="1:2">
@@ -57559,7 +57559,7 @@
         <v>7152</v>
       </c>
       <c r="B7152">
-        <v>2.964029046856784</v>
+        <v>2.964029046856783</v>
       </c>
     </row>
     <row r="7153" spans="1:2">
@@ -57711,7 +57711,7 @@
         <v>7171</v>
       </c>
       <c r="B7171">
-        <v>3.751469897794407</v>
+        <v>3.751469897794406</v>
       </c>
     </row>
     <row r="7172" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>24.4840718821198</v>
+        <v>24.48407188211979</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>45.82508582585368</v>
+        <v>45.82508582585366</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57919,7 +57919,7 @@
         <v>7197</v>
       </c>
       <c r="B7197">
-        <v>56.65467615357158</v>
+        <v>56.65467615357157</v>
       </c>
     </row>
     <row r="7198" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>184.3131675059245</v>
+        <v>184.3131675059244</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -57967,7 +57967,7 @@
         <v>7203</v>
       </c>
       <c r="B7203">
-        <v>200.4061964595847</v>
+        <v>200.4061964595846</v>
       </c>
     </row>
     <row r="7204" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>8.416370127620716</v>
+        <v>8.416370127620715</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>53.4444639173868</v>
+        <v>53.44446391738679</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>569.1181668289304</v>
+        <v>569.1181668289303</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58327,7 +58327,7 @@
         <v>7248</v>
       </c>
       <c r="B7248">
-        <v>98.97281531659587</v>
+        <v>98.97281531659584</v>
       </c>
     </row>
     <row r="7249" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>54.30131864383135</v>
+        <v>54.30131864383134</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>14.88350191756381</v>
+        <v>14.8835019175638</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58471,7 +58471,7 @@
         <v>7266</v>
       </c>
       <c r="B7266">
-        <v>0.5710958101978172</v>
+        <v>0.5710958101978171</v>
       </c>
     </row>
     <row r="7267" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>28.74482070206926</v>
+        <v>28.74482070206925</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>6.342197950730069</v>
+        <v>6.342197950730068</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59487,7 +59487,7 @@
         <v>7393</v>
       </c>
       <c r="B7393">
-        <v>45.47299028000594</v>
+        <v>45.47299028000593</v>
       </c>
     </row>
     <row r="7394" spans="1:2">
@@ -59703,7 +59703,7 @@
         <v>7420</v>
       </c>
       <c r="B7420">
-        <v>256.1786701725779</v>
+        <v>256.1786701725778</v>
       </c>
     </row>
     <row r="7421" spans="1:2">
@@ -59911,7 +59911,7 @@
         <v>7446</v>
       </c>
       <c r="B7446">
-        <v>468.9036681357342</v>
+        <v>468.9036681357341</v>
       </c>
     </row>
     <row r="7447" spans="1:2">
@@ -60135,7 +60135,7 @@
         <v>7474</v>
       </c>
       <c r="B7474">
-        <v>53.74373340851583</v>
+        <v>53.74373340851582</v>
       </c>
     </row>
     <row r="7475" spans="1:2">
@@ -60223,7 +60223,7 @@
         <v>7485</v>
       </c>
       <c r="B7485">
-        <v>8.249721523899066</v>
+        <v>8.249721523899064</v>
       </c>
     </row>
     <row r="7486" spans="1:2">
@@ -60279,7 +60279,7 @@
         <v>7492</v>
       </c>
       <c r="B7492">
-        <v>80.96063997336572</v>
+        <v>80.9606399733657</v>
       </c>
     </row>
     <row r="7493" spans="1:2">
@@ -60423,7 +60423,7 @@
         <v>7510</v>
       </c>
       <c r="B7510">
-        <v>3.427597092969754</v>
+        <v>3.427597092969753</v>
       </c>
     </row>
     <row r="7511" spans="1:2">
@@ -60455,7 +60455,7 @@
         <v>7514</v>
       </c>
       <c r="B7514">
-        <v>7.810504369396117</v>
+        <v>7.810504369396116</v>
       </c>
     </row>
     <row r="7515" spans="1:2">
@@ -60471,7 +60471,7 @@
         <v>7516</v>
       </c>
       <c r="B7516">
-        <v>51.33634532208801</v>
+        <v>51.336345322088</v>
       </c>
     </row>
     <row r="7517" spans="1:2">
@@ -60479,7 +60479,7 @@
         <v>7517</v>
       </c>
       <c r="B7517">
-        <v>70.34563626015566</v>
+        <v>70.34563626015564</v>
       </c>
     </row>
     <row r="7518" spans="1:2">
@@ -60495,7 +60495,7 @@
         <v>7519</v>
       </c>
       <c r="B7519">
-        <v>83.78229862649329</v>
+        <v>83.78229862649327</v>
       </c>
     </row>
     <row r="7520" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>38.25537741395288</v>
+        <v>38.25537741395287</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>1.982490763866217</v>
+        <v>1.982490763866216</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60935,7 +60935,7 @@
         <v>7574</v>
       </c>
       <c r="B7574">
-        <v>0.8725838490895163</v>
+        <v>0.8725838490895161</v>
       </c>
     </row>
     <row r="7575" spans="1:2">
@@ -61047,7 +61047,7 @@
         <v>7588</v>
       </c>
       <c r="B7588">
-        <v>235.9336158928908</v>
+        <v>235.9336158928907</v>
       </c>
     </row>
     <row r="7589" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>431.6647431437496</v>
+        <v>431.6647431437495</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>43.16908762882671</v>
+        <v>43.1690876288267</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>53.00333925141452</v>
+        <v>53.0033392514145</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61495,7 +61495,7 @@
         <v>7644</v>
       </c>
       <c r="B7644">
-        <v>95.72996668954576</v>
+        <v>95.72996668954575</v>
       </c>
     </row>
     <row r="7645" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>93.74819981114503</v>
+        <v>93.74819981114501</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>88.61726153249192</v>
+        <v>88.61726153249191</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>340.2979711864278</v>
+        <v>340.2979711864277</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>689.2934115872083</v>
+        <v>689.2934115872082</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>132.9045508657026</v>
+        <v>132.9045508657025</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>2.765953527139258</v>
+        <v>2.765953527139257</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -62175,7 +62175,7 @@
         <v>7729</v>
       </c>
       <c r="B7729">
-        <v>302.443919391397</v>
+        <v>302.4439193913969</v>
       </c>
     </row>
     <row r="7730" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>354.6399592982942</v>
+        <v>354.6399592982941</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62351,7 +62351,7 @@
         <v>7751</v>
       </c>
       <c r="B7751">
-        <v>398.6279000111954</v>
+        <v>398.6279000111953</v>
       </c>
     </row>
     <row r="7752" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>568.1510324013479</v>
+        <v>568.1510324013478</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>462.1504614989646</v>
+        <v>462.1504614989645</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>569.2588409274879</v>
+        <v>569.2588409274878</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62791,7 +62791,7 @@
         <v>7806</v>
       </c>
       <c r="B7806">
-        <v>621.7996496042663</v>
+        <v>621.7996496042662</v>
       </c>
     </row>
     <row r="7807" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>74.28386626347908</v>
+        <v>74.28386626347907</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62863,7 +62863,7 @@
         <v>7815</v>
       </c>
       <c r="B7815">
-        <v>74.460558792688</v>
+        <v>74.46055879268799</v>
       </c>
     </row>
     <row r="7816" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>81.99307062836191</v>
+        <v>81.99307062836189</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>579.0268107247589</v>
+        <v>579.0268107247588</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -63015,7 +63015,7 @@
         <v>7834</v>
       </c>
       <c r="B7834">
-        <v>352.8051001394433</v>
+        <v>352.8051001394432</v>
       </c>
     </row>
     <row r="7835" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>407.715739849045</v>
+        <v>407.7157398490449</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>656.744561041129</v>
+        <v>656.7445610411289</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>394.8540769991402</v>
+        <v>394.8540769991401</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>506.377469050233</v>
+        <v>506.3774690502329</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63343,7 +63343,7 @@
         <v>7875</v>
       </c>
       <c r="B7875">
-        <v>531.9325514588784</v>
+        <v>531.9325514588783</v>
       </c>
     </row>
     <row r="7876" spans="1:2">
@@ -63431,7 +63431,7 @@
         <v>7886</v>
       </c>
       <c r="B7886">
-        <v>246.170059745462</v>
+        <v>246.1700597454619</v>
       </c>
     </row>
     <row r="7887" spans="1:2">
@@ -63455,7 +63455,7 @@
         <v>7889</v>
       </c>
       <c r="B7889">
-        <v>347.8141589652483</v>
+        <v>347.8141589652482</v>
       </c>
     </row>
     <row r="7890" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>117.3039193562285</v>
+        <v>117.3039193562284</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>132.5220638531457</v>
+        <v>132.5220638531456</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63783,7 +63783,7 @@
         <v>7930</v>
       </c>
       <c r="B7930">
-        <v>92.30571002027466</v>
+        <v>92.30571002027465</v>
       </c>
     </row>
     <row r="7931" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>56.91569694344492</v>
+        <v>56.91569694344491</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>7.307246210738005</v>
+        <v>7.307246210738004</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>619.5984809541925</v>
+        <v>619.5984809541924</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>80.39383472317391</v>
+        <v>80.3938347231739</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>91.24879034928796</v>
+        <v>91.24879034928793</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>258.8966109851232</v>
+        <v>258.8966109851231</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>234.0904921307496</v>
+        <v>234.0904921307495</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>4.765092132742424</v>
+        <v>4.765092132742423</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64655,7 +64655,7 @@
         <v>8039</v>
       </c>
       <c r="B8039">
-        <v>70.30519245682039</v>
+        <v>70.30519245682038</v>
       </c>
     </row>
     <row r="8040" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>294.0314324550386</v>
+        <v>294.0314324550385</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>271.3729381719753</v>
+        <v>271.3729381719752</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64823,7 +64823,7 @@
         <v>8060</v>
       </c>
       <c r="B8060">
-        <v>61.57518063433468</v>
+        <v>61.57518063433467</v>
       </c>
     </row>
     <row r="8061" spans="1:2">
@@ -64831,7 +64831,7 @@
         <v>8061</v>
       </c>
       <c r="B8061">
-        <v>54.75636711485044</v>
+        <v>54.75636711485043</v>
       </c>
     </row>
     <row r="8062" spans="1:2">
@@ -64887,7 +64887,7 @@
         <v>8068</v>
       </c>
       <c r="B8068">
-        <v>181.5349712878304</v>
+        <v>181.5349712878303</v>
       </c>
     </row>
     <row r="8069" spans="1:2">
@@ -65039,7 +65039,7 @@
         <v>8087</v>
       </c>
       <c r="B8087">
-        <v>3.395419944422009</v>
+        <v>3.395419944422008</v>
       </c>
     </row>
     <row r="8088" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>47.39175567722563</v>
+        <v>47.39175567722562</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65247,7 +65247,7 @@
         <v>8113</v>
       </c>
       <c r="B8113">
-        <v>9.88093109841267</v>
+        <v>9.880931098412669</v>
       </c>
     </row>
     <row r="8114" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>3.783044199215625</v>
+        <v>3.783044199215624</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65439,7 +65439,7 @@
         <v>8137</v>
       </c>
       <c r="B8137">
-        <v>5.942808945231471</v>
+        <v>5.94280894523147</v>
       </c>
     </row>
     <row r="8138" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>39.4245022628015</v>
+        <v>39.42450226280149</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65879,7 +65879,7 @@
         <v>8192</v>
       </c>
       <c r="B8192">
-        <v>0.8146105877187995</v>
+        <v>0.8146105877187994</v>
       </c>
     </row>
     <row r="8193" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>8.287225443724207</v>
+        <v>8.287225443724205</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>201.5090520851712</v>
+        <v>201.5090520851711</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>4.551754880072401</v>
+        <v>4.5517548800724</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>192.2257631716383</v>
+        <v>192.2257631716382</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>231.2069661813606</v>
+        <v>231.2069661813605</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66215,7 +66215,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>279.5525508610135</v>
+        <v>279.5525508610134</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>665.3917099581438</v>
+        <v>665.3917099581437</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>552.6279386965725</v>
+        <v>552.6279386965724</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66303,7 +66303,7 @@
         <v>8245</v>
       </c>
       <c r="B8245">
-        <v>84.08801568047285</v>
+        <v>84.08801568047282</v>
       </c>
     </row>
     <row r="8246" spans="1:2">
@@ -66415,7 +66415,7 @@
         <v>8259</v>
       </c>
       <c r="B8259">
-        <v>209.1237703471896</v>
+        <v>209.1237703471895</v>
       </c>
     </row>
     <row r="8260" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>74.0278247505526</v>
+        <v>74.02782475055258</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>112.6757034144535</v>
+        <v>112.6757034144534</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>76.71397321682393</v>
+        <v>76.71397321682392</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>65.08277205344913</v>
+        <v>65.08277205344912</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66519,7 +66519,7 @@
         <v>8272</v>
       </c>
       <c r="B8272">
-        <v>57.02361097515872</v>
+        <v>57.02361097515871</v>
       </c>
     </row>
     <row r="8273" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>397.9998487753441</v>
+        <v>397.999848775344</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66679,7 +66679,7 @@
         <v>8292</v>
       </c>
       <c r="B8292">
-        <v>169.7897684211267</v>
+        <v>169.7897684211266</v>
       </c>
     </row>
     <row r="8293" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>266.3951265803124</v>
+        <v>266.3951265803123</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>89.23435484220765</v>
+        <v>89.23435484220764</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67151,7 +67151,7 @@
         <v>8351</v>
       </c>
       <c r="B8351">
-        <v>293.6097032304049</v>
+        <v>293.6097032304048</v>
       </c>
     </row>
     <row r="8352" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>348.9338954826617</v>
+        <v>348.9338954826616</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>58.38109902811783</v>
+        <v>58.38109902811782</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67271,7 +67271,7 @@
         <v>8366</v>
       </c>
       <c r="B8366">
-        <v>31.26552763630588</v>
+        <v>31.26552763630587</v>
       </c>
     </row>
     <row r="8367" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>299.8063972718604</v>
+        <v>299.8063972718603</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67487,7 +67487,7 @@
         <v>8393</v>
       </c>
       <c r="B8393">
-        <v>46.1377340098976</v>
+        <v>46.13773400989759</v>
       </c>
     </row>
     <row r="8394" spans="1:2">
@@ -67511,7 +67511,7 @@
         <v>8396</v>
       </c>
       <c r="B8396">
-        <v>269.4532349474319</v>
+        <v>269.4532349474318</v>
       </c>
     </row>
     <row r="8397" spans="1:2">
@@ -67519,7 +67519,7 @@
         <v>8397</v>
       </c>
       <c r="B8397">
-        <v>240.3522098435529</v>
+        <v>240.3522098435528</v>
       </c>
     </row>
     <row r="8398" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>337.3797749331652</v>
+        <v>337.3797749331651</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>404.0957263795001</v>
+        <v>404.0957263795</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>203.1886715148432</v>
+        <v>203.1886715148431</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>176.9501093448046</v>
+        <v>176.9501093448045</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -67863,7 +67863,7 @@
         <v>8440</v>
       </c>
       <c r="B8440">
-        <v>106.3471977426497</v>
+        <v>106.3471977426496</v>
       </c>
     </row>
     <row r="8441" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>325.8305193629105</v>
+        <v>325.8305193629104</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67911,7 +67911,7 @@
         <v>8446</v>
       </c>
       <c r="B8446">
-        <v>254.0925905193864</v>
+        <v>254.0925905193863</v>
       </c>
     </row>
     <row r="8447" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>51.27371604112607</v>
+        <v>51.27371604112606</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68151,7 +68151,7 @@
         <v>8476</v>
       </c>
       <c r="B8476">
-        <v>200.0351685246394</v>
+        <v>200.0351685246393</v>
       </c>
     </row>
     <row r="8477" spans="1:2">
@@ -68183,7 +68183,7 @@
         <v>8480</v>
       </c>
       <c r="B8480">
-        <v>79.80670206574054</v>
+        <v>79.80670206574052</v>
       </c>
     </row>
     <row r="8481" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>175.5944506412688</v>
+        <v>175.5944506412687</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68383,7 +68383,7 @@
         <v>8505</v>
       </c>
       <c r="B8505">
-        <v>63.47955038213533</v>
+        <v>63.47955038213532</v>
       </c>
     </row>
     <row r="8506" spans="1:2">
@@ -68431,7 +68431,7 @@
         <v>8511</v>
       </c>
       <c r="B8511">
-        <v>64.28027907396587</v>
+        <v>64.28027907396586</v>
       </c>
     </row>
     <row r="8512" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>71.28964738278772</v>
+        <v>71.28964738278771</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>1.451285438882673</v>
+        <v>1.451285438882672</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>393.5530819057355</v>
+        <v>393.5530819057354</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68687,7 +68687,7 @@
         <v>8543</v>
       </c>
       <c r="B8543">
-        <v>389.3554254189891</v>
+        <v>389.355425418989</v>
       </c>
     </row>
     <row r="8544" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>574.634174075991</v>
+        <v>574.6341740759909</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68847,7 +68847,7 @@
         <v>8563</v>
       </c>
       <c r="B8563">
-        <v>882.3234789173488</v>
+        <v>882.3234789173487</v>
       </c>
     </row>
     <row r="8564" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>697.0061621116589</v>
+        <v>697.0061621116588</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>693.6587047080691</v>
+        <v>693.658704708069</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68879,7 +68879,7 @@
         <v>8567</v>
       </c>
       <c r="B8567">
-        <v>655.5412992776971</v>
+        <v>655.541299277697</v>
       </c>
     </row>
     <row r="8568" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>980.1482470541968</v>
+        <v>980.1482470541964</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>590.6328048480984</v>
+        <v>590.6328048480983</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69175,7 +69175,7 @@
         <v>8604</v>
       </c>
       <c r="B8604">
-        <v>106.3935645116763</v>
+        <v>106.3935645116762</v>
       </c>
     </row>
     <row r="8605" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>82.96138583915911</v>
+        <v>82.96138583915909</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69247,7 +69247,7 @@
         <v>8613</v>
       </c>
       <c r="B8613">
-        <v>531.709993312119</v>
+        <v>531.7099933121189</v>
       </c>
     </row>
     <row r="8614" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>716.279158370314</v>
+        <v>716.2791583703139</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69335,7 +69335,7 @@
         <v>8624</v>
       </c>
       <c r="B8624">
-        <v>521.1897980799158</v>
+        <v>521.1897980799157</v>
       </c>
     </row>
     <row r="8625" spans="1:2">
@@ -69343,7 +69343,7 @@
         <v>8625</v>
       </c>
       <c r="B8625">
-        <v>486.582035565929</v>
+        <v>486.5820355659289</v>
       </c>
     </row>
     <row r="8626" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>710.0592531025967</v>
+        <v>710.0592531025965</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>260.1740197213364</v>
+        <v>260.1740197213363</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69559,7 +69559,7 @@
         <v>8652</v>
       </c>
       <c r="B8652">
-        <v>224.7890035057158</v>
+        <v>224.7890035057157</v>
       </c>
     </row>
     <row r="8653" spans="1:2">
@@ -69631,7 +69631,7 @@
         <v>8661</v>
       </c>
       <c r="B8661">
-        <v>376.0634815315424</v>
+        <v>376.0634815315423</v>
       </c>
     </row>
     <row r="8662" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>91.87516228808767</v>
+        <v>91.87516228808765</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -69943,7 +69943,7 @@
         <v>8700</v>
       </c>
       <c r="B8700">
-        <v>201.8601511894875</v>
+        <v>201.8601511894874</v>
       </c>
     </row>
     <row r="8701" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>231.6410630038258</v>
+        <v>231.6410630038257</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>418.5783592828201</v>
+        <v>418.57835928282</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>203.9269760754389</v>
+        <v>203.9269760754388</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>744.1196761447794</v>
+        <v>744.1196761447793</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>543.6367243801695</v>
+        <v>543.6367243801694</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>601.4603143714419</v>
+        <v>601.4603143714418</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>491.7758405130854</v>
+        <v>491.7758405130853</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>673.2354632368759</v>
+        <v>673.2354632368758</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>687.8107652026207</v>
+        <v>687.8107652026205</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
